--- a/conf/template.xlsx
+++ b/conf/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>合同序号</t>
   </si>
@@ -85,7 +85,16 @@
     <t xml:space="preserve">净利润  </t>
   </si>
   <si>
+    <t>是否收票</t>
+  </si>
+  <si>
     <t xml:space="preserve">收票日期  </t>
+  </si>
+  <si>
+    <t>是否寄出</t>
+  </si>
+  <si>
+    <t>是否开票</t>
   </si>
   <si>
     <t>开票日期</t>
@@ -947,9 +956,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:AA" totalsRowShown="0">
-  <autoFilter ref="A1:AA1048576"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A:AD" totalsRowShown="0">
+  <autoFilter ref="A1:AD1048576"/>
+  <tableColumns count="30">
     <tableColumn id="1" name="合同序号" dataDxfId="0"/>
     <tableColumn id="2" name="供应商" dataDxfId="1"/>
     <tableColumn id="3" name="客户" dataDxfId="2"/>
@@ -973,7 +982,10 @@
     <tableColumn id="19" name="附加税" dataDxfId="18"/>
     <tableColumn id="20" name="印花税  " dataDxfId="19"/>
     <tableColumn id="21" name="净利润  " dataDxfId="20"/>
+    <tableColumn id="28" name="是否收票"/>
     <tableColumn id="22" name="收票日期  " dataDxfId="21"/>
+    <tableColumn id="29" name="是否寄出"/>
+    <tableColumn id="30" name="是否开票"/>
     <tableColumn id="23" name="开票日期" dataDxfId="22"/>
     <tableColumn id="24" name="项目状态" dataDxfId="23"/>
     <tableColumn id="25" name="备注" dataDxfId="24"/>
@@ -1240,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1257,12 +1269,14 @@
     <col min="20" max="20" width="8" style="2" customWidth="1"/>
     <col min="21" max="22" width="9" style="2"/>
     <col min="23" max="23" width="7.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="11.875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="24" max="24" width="8.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="8.625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1344,8 +1358,17 @@
       <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:30">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1372,7 +1395,10 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
